--- a/Vapeix_Shield1.0.1/BOM(Bill of Materials)/BOM.xlsx
+++ b/Vapeix_Shield1.0.1/BOM(Bill of Materials)/BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vapeix_Shield_Work\Vapeix_Shield1.0.1\BOM(Bill of Materials)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitWork\Vapeix-Shield-PCB\Vapeix_Shield1.0.1\BOM(Bill of Materials)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="119">
   <si>
     <t>0603</t>
   </si>
@@ -342,15 +342,6 @@
   </si>
   <si>
     <t>ON Semiconductor</t>
-  </si>
-  <si>
-    <t>RT9166-13GVL</t>
-  </si>
-  <si>
-    <t>IC REG LDO 1.3V 0.3A SOT23-3</t>
-  </si>
-  <si>
-    <t>Richtek USA Inc.</t>
   </si>
   <si>
     <t>Samsung Electro-Mechanics America, Inc.</t>
@@ -967,7 +958,7 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1504950" cy="4141"/>
@@ -1292,10 +1283,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z48"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1339,7 +1330,7 @@
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="27"/>
@@ -1352,7 +1343,7 @@
     </row>
     <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="53" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B4" s="58"/>
       <c r="C4" s="27"/>
@@ -1365,7 +1356,7 @@
     </row>
     <row r="5" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" s="58"/>
       <c r="C5" s="30"/>
@@ -1378,7 +1369,7 @@
     </row>
     <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B6" s="55"/>
       <c r="C6" s="34"/>
@@ -1391,7 +1382,7 @@
     </row>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="53" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="54"/>
       <c r="C7" s="34"/>
@@ -1404,7 +1395,7 @@
     </row>
     <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="53" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B8" s="55"/>
       <c r="C8" s="34"/>
@@ -2341,113 +2332,87 @@
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B43" s="14"/>
       <c r="C43" s="17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="43" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F43" s="40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H43" s="41">
-        <v>9.486E-2</v>
+        <v>0.16</v>
       </c>
       <c r="I43" s="42">
         <f>F43*H43</f>
-        <v>9.486E-2</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="51" t="s">
+      <c r="A44" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="14"/>
-      <c r="C44" s="17" t="s">
+      <c r="B44" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="43" t="s">
-        <v>109</v>
+      <c r="D44" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>112</v>
       </c>
       <c r="F44" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>34</v>
       </c>
       <c r="H44" s="41">
-        <v>0.16</v>
+        <v>0.1</v>
       </c>
       <c r="I44" s="42">
-        <f>F44*H44</f>
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="49" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="F45" s="40">
-        <v>3</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="H45" s="41">
-        <v>0.1</v>
-      </c>
-      <c r="I45" s="42">
-        <f t="shared" ref="I45" si="1">F45*H45</f>
+        <f t="shared" ref="I44" si="1">F44*H44</f>
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="39">
-        <f>SUM(F11:F45)</f>
-        <v>76</v>
-      </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="44">
-        <f>SUM(I11:I45)</f>
-        <v>47.394859999999994</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+    <row r="45" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="1:9" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="39">
+        <f>SUM(F11:F44)</f>
+        <v>75</v>
+      </c>
+      <c r="G46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="44">
+        <f>SUM(I11:I44)</f>
+        <v>47.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
